--- a/data/echoMRI/Kotz12182025.xlsx
+++ b/data/echoMRI/Kotz12182025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F171071-BAAF-4E41-A42E-F2EB66025938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB57EF4-A347-5146-89D5-8CAD066CD1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>RecNumber</t>
   </si>
@@ -176,16 +176,66 @@
   </si>
   <si>
     <t>08:58:42 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:13:28 Dec 18, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>09:14:35 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:15:44 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:17:04 Dec 18, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>09:18:05 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:19:27 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:20:59 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:22:05 Dec 18, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>09:23:12 Dec 18, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>09:24:09 Dec 18, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>09:25:28 Dec 18, 2025; 36; ems</t>
+  </si>
+  <si>
+    <t>09:26:43 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:27:58 Dec 18, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>09:29:12 Dec 18, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:30:23 Dec 18, 2025; 27; ems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,8 +258,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="29.59765625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1164,6 +1215,441 @@
       </c>
       <c r="I22">
         <v>29.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9401</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="D23" s="1">
+        <v>35.08</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9403</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12.41</v>
+      </c>
+      <c r="D24" s="1">
+        <v>33.44</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9411</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30.82</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9407</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.81</v>
+      </c>
+      <c r="D26" s="1">
+        <v>38.47</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9418</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9410</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19.16</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43.26</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9414</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24.48</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9417</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>35.69</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9405</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="D31" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9402</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.59</v>
+      </c>
+      <c r="D32" s="1">
+        <v>27.34</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9404</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>25.07</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9406</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D34" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9400</v>
+      </c>
+      <c r="C35" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="D35" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9412</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="D36" s="1">
+        <v>31.12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9415</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12.88</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>49.8</v>
       </c>
     </row>
   </sheetData>
